--- a/Microgrid Testing Data/Grid2Island_03NOV2021.xlsx
+++ b/Microgrid Testing Data/Grid2Island_03NOV2021.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SOE-VLAB4\microgrid\Experimental Data\Microgrid Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ustugrid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59713406-3E3C-46D8-857C-B91EBDD191D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22FF5E-5E7D-42DB-8437-995339A8AF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microgrid_1sec_2021113" sheetId="1" r:id="rId1"/>
+    <sheet name="Utility" sheetId="2" r:id="rId2"/>
+    <sheet name="Load Bank" sheetId="3" r:id="rId3"/>
+    <sheet name="Battery" sheetId="4" r:id="rId4"/>
+    <sheet name="Generator" sheetId="5" r:id="rId5"/>
+    <sheet name="PV" sheetId="6" r:id="rId6"/>
+    <sheet name="Microgrid Frequency" sheetId="7" r:id="rId7"/>
+    <sheet name="Summary Statistics" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -611,6 +618,391 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB42EB5-4E47-B643-EE0E-9B29AFEA6885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11277600" cy="7102422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F60C770-C375-4E42-D667-3DE023467C10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11525250" cy="7037272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E331F859-EB78-05BC-1AF8-7C95C9791370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10220325" cy="7117254"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>128654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0659B13-2965-105E-E403-5E48814DE089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10506074" cy="7177154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C23F42A-68A6-D8AA-44E4-FC3B31CB1E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10067924" cy="7254828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1475E4E0-1735-36DD-4D67-DF550732CF02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9448800" cy="6614160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>15504</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9272975A-FD23-B900-8E20-DCE54C8B9437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17693904" cy="2486024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -877,7 +1269,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D486" sqref="D486"/>
     </sheetView>
   </sheetViews>
@@ -22065,4 +22457,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CB3F9C-59DB-41E9-A34E-9CBD24820C8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E878B1C-9EC5-429E-8E55-01413C2552C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28D93A3-A7E1-4ACF-A972-7D821BA5FC3D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C01B3C6-2368-4CA4-8C3B-4FD47F0E891C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB7990-00AA-49AF-829B-E66FAE1BA0F3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1409F-20F0-432A-9AD2-810BE791E544}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EF63DC-CDBF-4C0B-B53F-476E1CFFE85A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Microgrid Testing Data/Grid2Island_03NOV2021.xlsx
+++ b/Microgrid Testing Data/Grid2Island_03NOV2021.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ustugrid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A22FF5E-5E7D-42DB-8437-995339A8AF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2E031-CCE0-41E7-A9DE-7AB71596E8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31110" yWindow="2565" windowWidth="23370" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Microgrid_1sec_2021113" sheetId="1" r:id="rId1"/>
-    <sheet name="Utility" sheetId="2" r:id="rId2"/>
-    <sheet name="Load Bank" sheetId="3" r:id="rId3"/>
-    <sheet name="Battery" sheetId="4" r:id="rId4"/>
-    <sheet name="Generator" sheetId="5" r:id="rId5"/>
-    <sheet name="PV" sheetId="6" r:id="rId6"/>
-    <sheet name="Microgrid Frequency" sheetId="7" r:id="rId7"/>
-    <sheet name="Summary Statistics" sheetId="8" r:id="rId8"/>
+    <sheet name="README" sheetId="9" r:id="rId1"/>
+    <sheet name="Microgrid_1sec_2021113" sheetId="1" r:id="rId2"/>
+    <sheet name="Utility" sheetId="2" r:id="rId3"/>
+    <sheet name="Load Bank" sheetId="3" r:id="rId4"/>
+    <sheet name="Battery" sheetId="4" r:id="rId5"/>
+    <sheet name="Generator" sheetId="5" r:id="rId6"/>
+    <sheet name="PV" sheetId="6" r:id="rId7"/>
+    <sheet name="Microgrid Frequency" sheetId="7" r:id="rId8"/>
+    <sheet name="Summary Statistics" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>UtilBRK_status</t>
   </si>
@@ -70,6 +71,35 @@
   <si>
     <t>Microgrid frequency (Hz)</t>
   </si>
+  <si>
+    <t>Source: Center for Microgrid Research at the University of St. Thomas</t>
+  </si>
+  <si>
+    <t>License: CC BY-NC-SA 4.0</t>
+  </si>
+  <si>
+    <t>License Details: https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Acknowledgement</t>
+  </si>
+  <si>
+    <t>This project was made possible in whole or in part by a grant from the Minnesota Department of Commerce through the Minnesota Renewable Development Account, which is financed by Xcel Energy ratepayers. CMR sincerely thanks the Minnesota Department of Commerce, the Minnesota State Legislature, and Xcel Energy for their invaluable support in establishing the Center for Microgrid Research. Their contributions have been instrumental in advancing microgrid research and this data collection.</t>
+  </si>
+  <si>
+    <r>
+      <t>Data Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Grid2Island_03NOV2021</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +239,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -555,11 +591,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1265,11 +1304,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD48E50B-1396-4944-B820-5F994BD66DAE}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D486" sqref="D486"/>
     </sheetView>
   </sheetViews>
@@ -22459,7 +22546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CB3F9C-59DB-41E9-A34E-9CBD24820C8E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22474,7 +22561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E878B1C-9EC5-429E-8E55-01413C2552C9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22489,7 +22576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28D93A3-A7E1-4ACF-A972-7D821BA5FC3D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22504,7 +22591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C01B3C6-2368-4CA4-8C3B-4FD47F0E891C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22517,7 +22604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FB7990-00AA-49AF-829B-E66FAE1BA0F3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22530,7 +22617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1409F-20F0-432A-9AD2-810BE791E544}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -22543,7 +22630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EF63DC-CDBF-4C0B-B53F-476E1CFFE85A}">
   <dimension ref="A1"/>
   <sheetViews>
